--- a/va_facility_data_2025-02-20/Great Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Great%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Great Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Great%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf9bfb5544cb040c38837dd54f872e0d2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R700207be3b6745afbb9476ec22d6edc8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R34d7c4766ba1445eb87b7093cb1c8904"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2017938114b64b7eb84621ba1a8b5937"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3d896a576d57458b8bec163065766e24"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb67092c4cc7745c0b902892c274610f6"/>
   </x:sheets>
 </x:workbook>
 </file>
